--- a/Data/PowerBI Training/Labs & Quizes/Labs & Quizes.xlsx
+++ b/Data/PowerBI Training/Labs & Quizes/Labs & Quizes.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertsonOtooAsare\Downloads\PowerBiDataSets\NSSTraining\Data Analytics\Labs\Analytics_Capstone\PowerBI Training\Labs &amp; Quizes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancisClass-Peters\Desktop\WSA\reStart\Analysis\Generate Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519E984-EA84-46E4-BDD6-2318AE69C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2B591-90D9-42D6-9C45-74BCDADC0DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Labs" sheetId="1" r:id="rId1"/>
+    <sheet name="Quizzes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="111">
   <si>
     <t>email</t>
   </si>
@@ -722,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0"/>
+    <sheetView topLeftCell="A54" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -799,7 +800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -834,7 +835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -869,7 +870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -904,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -939,7 +940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -974,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -4269,268 +4270,3552 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007557929804FE1241AFC03551281AFAE4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90d04df0c1144e4e31d19cddd39e4fd9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd" xmlns:ns3="daa956c4-404d-44aa-be03-6756c355c5d1" xmlns:ns4="c80f7d61-e407-4e4d-8da3-549d743a288b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ab3522574b5f672d4c9ac750a39e6d0" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd"/>
-    <xsd:import namespace="daa956c4-404d-44aa-be03-6756c355c5d1"/>
-    <xsd:import namespace="c80f7d61-e407-4e4d-8da3-549d743a288b"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="daa956c4-404d-44aa-be03-6756c355c5d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6f419559-0536-47b5-b359-5a778200eada" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c80f7d61-e407-4e4d-8da3-549d743a288b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{abc0acd6-5397-406e-b506-f127aabb4d3b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c80f7d61-e407-4e4d-8da3-549d743a288b">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="daa956c4-404d-44aa-be03-6756c355c5d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c80f7d61-e407-4e4d-8da3-549d743a288b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F784B20-9F39-4ECA-AC88-1C8B68F59841}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1614A0BF-9BE2-4DB5-A0BF-7E0DBB54A880}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DAB68D3-BB17-4CD1-8236-57981D42CDF5}"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>82</v>
+      </c>
+      <c r="J3">
+        <v>94</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>88</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>89</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>95</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>74</v>
+      </c>
+      <c r="H10">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <v>89</v>
+      </c>
+      <c r="K10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="G11">
+        <v>94</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>73</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>86</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>61</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>62</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>81</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>86</v>
+      </c>
+      <c r="F18">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>87</v>
+      </c>
+      <c r="F19">
+        <v>73</v>
+      </c>
+      <c r="G19">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>65</v>
+      </c>
+      <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>87</v>
+      </c>
+      <c r="J20">
+        <v>88</v>
+      </c>
+      <c r="K20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>88</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>74</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>24</v>
+      </c>
+      <c r="K22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>94</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>97</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>97</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>95</v>
+      </c>
+      <c r="J25">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>95</v>
+      </c>
+      <c r="J26">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>78</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>99</v>
+      </c>
+      <c r="I27">
+        <v>84</v>
+      </c>
+      <c r="J27">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+      <c r="H28">
+        <v>96</v>
+      </c>
+      <c r="I28">
+        <v>43</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+      <c r="F29">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>53</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>99</v>
+      </c>
+      <c r="J31">
+        <v>92</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>72</v>
+      </c>
+      <c r="J32">
+        <v>39</v>
+      </c>
+      <c r="K32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>93</v>
+      </c>
+      <c r="G33">
+        <v>74</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>72</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>62</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>82</v>
+      </c>
+      <c r="G34">
+        <v>58</v>
+      </c>
+      <c r="H34">
+        <v>83</v>
+      </c>
+      <c r="I34">
+        <v>37</v>
+      </c>
+      <c r="J34">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>54</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>55</v>
+      </c>
+      <c r="H36">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>64</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>68</v>
+      </c>
+      <c r="E38">
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>88</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>83</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>69</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39">
+        <v>95</v>
+      </c>
+      <c r="J39">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>95</v>
+      </c>
+      <c r="F40">
+        <v>85</v>
+      </c>
+      <c r="G40">
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <v>94</v>
+      </c>
+      <c r="I40">
+        <v>64</v>
+      </c>
+      <c r="J40">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41">
+        <v>70</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>37</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>94</v>
+      </c>
+      <c r="I42">
+        <v>36</v>
+      </c>
+      <c r="J42">
+        <v>33</v>
+      </c>
+      <c r="K42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>88</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>64</v>
+      </c>
+      <c r="I43">
+        <v>27</v>
+      </c>
+      <c r="J43">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>93</v>
+      </c>
+      <c r="G44">
+        <v>74</v>
+      </c>
+      <c r="H44">
+        <v>39</v>
+      </c>
+      <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <v>38</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>27</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>56</v>
+      </c>
+      <c r="H45">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>78</v>
+      </c>
+      <c r="J45">
+        <v>86</v>
+      </c>
+      <c r="K45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>98</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46">
+        <v>49</v>
+      </c>
+      <c r="I46">
+        <v>88</v>
+      </c>
+      <c r="J46">
+        <v>99</v>
+      </c>
+      <c r="K46">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>32</v>
+      </c>
+      <c r="F47">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>63</v>
+      </c>
+      <c r="I47">
+        <v>87</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>81</v>
+      </c>
+      <c r="G48">
+        <v>75</v>
+      </c>
+      <c r="H48">
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <v>39</v>
+      </c>
+      <c r="J48">
+        <v>97</v>
+      </c>
+      <c r="K48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>65</v>
+      </c>
+      <c r="H49">
+        <v>33</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <v>46</v>
+      </c>
+      <c r="K49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>93</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>67</v>
+      </c>
+      <c r="G50">
+        <v>84</v>
+      </c>
+      <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>95</v>
+      </c>
+      <c r="J50">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>27</v>
+      </c>
+      <c r="G51">
+        <v>37</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>32</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>95</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>74</v>
+      </c>
+      <c r="G52">
+        <v>19</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>70</v>
+      </c>
+      <c r="J52">
+        <v>98</v>
+      </c>
+      <c r="K52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>92</v>
+      </c>
+      <c r="H53">
+        <v>49</v>
+      </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>87</v>
+      </c>
+      <c r="E54">
+        <v>67</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>95</v>
+      </c>
+      <c r="I54">
+        <v>84</v>
+      </c>
+      <c r="J54">
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>67</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>79</v>
+      </c>
+      <c r="E55">
+        <v>84</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>98</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>86</v>
+      </c>
+      <c r="G56">
+        <v>76</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>38</v>
+      </c>
+      <c r="J56">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>99</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>51</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>65</v>
+      </c>
+      <c r="H57">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>81</v>
+      </c>
+      <c r="K57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>63</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>71</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>41</v>
+      </c>
+      <c r="I58">
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>28</v>
+      </c>
+      <c r="K58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>91</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>99</v>
+      </c>
+      <c r="H59">
+        <v>69</v>
+      </c>
+      <c r="I59">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>61</v>
+      </c>
+      <c r="K59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <v>84</v>
+      </c>
+      <c r="F60">
+        <v>98</v>
+      </c>
+      <c r="G60">
+        <v>47</v>
+      </c>
+      <c r="H60">
+        <v>58</v>
+      </c>
+      <c r="I60">
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>32</v>
+      </c>
+      <c r="E61">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>75</v>
+      </c>
+      <c r="J61">
+        <v>86</v>
+      </c>
+      <c r="K61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>52</v>
+      </c>
+      <c r="F62">
+        <v>85</v>
+      </c>
+      <c r="G62">
+        <v>90</v>
+      </c>
+      <c r="H62">
+        <v>34</v>
+      </c>
+      <c r="I62">
+        <v>56</v>
+      </c>
+      <c r="J62">
+        <v>65</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63">
+        <v>97</v>
+      </c>
+      <c r="C63">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>27</v>
+      </c>
+      <c r="H63">
+        <v>51</v>
+      </c>
+      <c r="I63">
+        <v>33</v>
+      </c>
+      <c r="J63">
+        <v>62</v>
+      </c>
+      <c r="K63">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>74</v>
+      </c>
+      <c r="E64">
+        <v>78</v>
+      </c>
+      <c r="F64">
+        <v>96</v>
+      </c>
+      <c r="G64">
+        <v>46</v>
+      </c>
+      <c r="H64">
+        <v>59</v>
+      </c>
+      <c r="I64">
+        <v>57</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>98</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>92</v>
+      </c>
+      <c r="J65">
+        <v>18</v>
+      </c>
+      <c r="K65">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>87</v>
+      </c>
+      <c r="E66">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <v>31</v>
+      </c>
+      <c r="H66">
+        <v>88</v>
+      </c>
+      <c r="I66">
+        <v>29</v>
+      </c>
+      <c r="J66">
+        <v>79</v>
+      </c>
+      <c r="K66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>93</v>
+      </c>
+      <c r="D67">
+        <v>52</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>53</v>
+      </c>
+      <c r="H67">
+        <v>48</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>49</v>
+      </c>
+      <c r="K67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <v>88</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>79</v>
+      </c>
+      <c r="G68">
+        <v>32</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>42</v>
+      </c>
+      <c r="J68">
+        <v>28</v>
+      </c>
+      <c r="K68">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>86</v>
+      </c>
+      <c r="E69">
+        <v>51</v>
+      </c>
+      <c r="F69">
+        <v>45</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+      <c r="H69">
+        <v>86</v>
+      </c>
+      <c r="I69">
+        <v>75</v>
+      </c>
+      <c r="J69">
+        <v>78</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>66</v>
+      </c>
+      <c r="G70">
+        <v>80</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>93</v>
+      </c>
+      <c r="K70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>49</v>
+      </c>
+      <c r="E71">
+        <v>62</v>
+      </c>
+      <c r="F71">
+        <v>85</v>
+      </c>
+      <c r="G71">
+        <v>25</v>
+      </c>
+      <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="I71">
+        <v>49</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>83</v>
+      </c>
+      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>97</v>
+      </c>
+      <c r="H72">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>97</v>
+      </c>
+      <c r="J72">
+        <v>94</v>
+      </c>
+      <c r="K72">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73">
+        <v>51</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>23</v>
+      </c>
+      <c r="F73">
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>26</v>
+      </c>
+      <c r="I73">
+        <v>33</v>
+      </c>
+      <c r="J73">
+        <v>57</v>
+      </c>
+      <c r="K73">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>81</v>
+      </c>
+      <c r="E74">
+        <v>81</v>
+      </c>
+      <c r="F74">
+        <v>51</v>
+      </c>
+      <c r="G74">
+        <v>50</v>
+      </c>
+      <c r="H74">
+        <v>97</v>
+      </c>
+      <c r="I74">
+        <v>64</v>
+      </c>
+      <c r="J74">
+        <v>95</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>94</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>52</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>42</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>35</v>
+      </c>
+      <c r="E76">
+        <v>54</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76">
+        <v>56</v>
+      </c>
+      <c r="H76">
+        <v>68</v>
+      </c>
+      <c r="I76">
+        <v>15</v>
+      </c>
+      <c r="J76">
+        <v>83</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>97</v>
+      </c>
+      <c r="F77">
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>59</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>95</v>
+      </c>
+      <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <v>34</v>
+      </c>
+      <c r="F78">
+        <v>32</v>
+      </c>
+      <c r="G78">
+        <v>39</v>
+      </c>
+      <c r="H78">
+        <v>56</v>
+      </c>
+      <c r="I78">
+        <v>42</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+      <c r="D79">
+        <v>39</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>94</v>
+      </c>
+      <c r="G79">
+        <v>27</v>
+      </c>
+      <c r="H79">
+        <v>42</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>66</v>
+      </c>
+      <c r="K79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <v>92</v>
+      </c>
+      <c r="F80">
+        <v>87</v>
+      </c>
+      <c r="G80">
+        <v>55</v>
+      </c>
+      <c r="H80">
+        <v>65</v>
+      </c>
+      <c r="I80">
+        <v>66</v>
+      </c>
+      <c r="J80">
+        <v>21</v>
+      </c>
+      <c r="K80">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>83</v>
+      </c>
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>96</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>37</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>77</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>34</v>
+      </c>
+      <c r="G82">
+        <v>39</v>
+      </c>
+      <c r="H82">
+        <v>46</v>
+      </c>
+      <c r="I82">
+        <v>47</v>
+      </c>
+      <c r="J82">
+        <v>60</v>
+      </c>
+      <c r="K82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>67</v>
+      </c>
+      <c r="D83">
+        <v>67</v>
+      </c>
+      <c r="E83">
+        <v>55</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>56</v>
+      </c>
+      <c r="H83">
+        <v>66</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>16</v>
+      </c>
+      <c r="K83">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84">
+        <v>71</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>74</v>
+      </c>
+      <c r="E84">
+        <v>98</v>
+      </c>
+      <c r="F84">
+        <v>88</v>
+      </c>
+      <c r="G84">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>38</v>
+      </c>
+      <c r="I84">
+        <v>60</v>
+      </c>
+      <c r="J84">
+        <v>64</v>
+      </c>
+      <c r="K84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>49</v>
+      </c>
+      <c r="D85">
+        <v>76</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>31</v>
+      </c>
+      <c r="G85">
+        <v>88</v>
+      </c>
+      <c r="H85">
+        <v>24</v>
+      </c>
+      <c r="I85">
+        <v>21</v>
+      </c>
+      <c r="J85">
+        <v>59</v>
+      </c>
+      <c r="K85">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>53</v>
+      </c>
+      <c r="D86">
+        <v>58</v>
+      </c>
+      <c r="E86">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>99</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>62</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>88</v>
+      </c>
+      <c r="E87">
+        <v>28</v>
+      </c>
+      <c r="F87">
+        <v>57</v>
+      </c>
+      <c r="G87">
+        <v>43</v>
+      </c>
+      <c r="H87">
+        <v>65</v>
+      </c>
+      <c r="I87">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>67</v>
+      </c>
+      <c r="K87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>93</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>73</v>
+      </c>
+      <c r="E88">
+        <v>53</v>
+      </c>
+      <c r="F88">
+        <v>83</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>69</v>
+      </c>
+      <c r="I88">
+        <v>59</v>
+      </c>
+      <c r="J88">
+        <v>68</v>
+      </c>
+      <c r="K88">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89">
+        <v>81</v>
+      </c>
+      <c r="C89">
+        <v>96</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>82</v>
+      </c>
+      <c r="F89">
+        <v>66</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>63</v>
+      </c>
+      <c r="I89">
+        <v>74</v>
+      </c>
+      <c r="J89">
+        <v>58</v>
+      </c>
+      <c r="K89">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>15</v>
+      </c>
+      <c r="J90">
+        <v>61</v>
+      </c>
+      <c r="K90">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>64</v>
+      </c>
+      <c r="C91">
+        <v>71</v>
+      </c>
+      <c r="D91">
+        <v>69</v>
+      </c>
+      <c r="E91">
+        <v>84</v>
+      </c>
+      <c r="F91">
+        <v>42</v>
+      </c>
+      <c r="G91">
+        <v>42</v>
+      </c>
+      <c r="H91">
+        <v>64</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>92</v>
+      </c>
+      <c r="K91">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92">
+        <v>65</v>
+      </c>
+      <c r="C92">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <v>58</v>
+      </c>
+      <c r="E92">
+        <v>73</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92">
+        <v>57</v>
+      </c>
+      <c r="H92">
+        <v>94</v>
+      </c>
+      <c r="I92">
+        <v>25</v>
+      </c>
+      <c r="J92">
+        <v>34</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>97</v>
+      </c>
+      <c r="E93">
+        <v>68</v>
+      </c>
+      <c r="F93">
+        <v>36</v>
+      </c>
+      <c r="G93">
+        <v>93</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>31</v>
+      </c>
+      <c r="J93">
+        <v>21</v>
+      </c>
+      <c r="K93">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>70</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>51</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>99</v>
+      </c>
+      <c r="J94">
+        <v>87</v>
+      </c>
+      <c r="K94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
+        <v>52</v>
+      </c>
+      <c r="C95">
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>44</v>
+      </c>
+      <c r="G95">
+        <v>46</v>
+      </c>
+      <c r="H95">
+        <v>84</v>
+      </c>
+      <c r="I95">
+        <v>66</v>
+      </c>
+      <c r="J95">
+        <v>32</v>
+      </c>
+      <c r="K95">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>85</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>27</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <v>47</v>
+      </c>
+      <c r="J96">
+        <v>70</v>
+      </c>
+      <c r="K96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>89</v>
+      </c>
+      <c r="E97">
+        <v>33</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>36</v>
+      </c>
+      <c r="H97">
+        <v>56</v>
+      </c>
+      <c r="I97">
+        <v>53</v>
+      </c>
+      <c r="J97">
+        <v>29</v>
+      </c>
+      <c r="K97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98">
+        <v>34</v>
+      </c>
+      <c r="C98">
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <v>83</v>
+      </c>
+      <c r="E98">
+        <v>73</v>
+      </c>
+      <c r="F98">
+        <v>84</v>
+      </c>
+      <c r="G98">
+        <v>14</v>
+      </c>
+      <c r="H98">
+        <v>66</v>
+      </c>
+      <c r="I98">
+        <v>57</v>
+      </c>
+      <c r="J98">
+        <v>78</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>94</v>
+      </c>
+      <c r="D99">
+        <v>43</v>
+      </c>
+      <c r="E99">
+        <v>47</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>82</v>
+      </c>
+      <c r="H99">
+        <v>42</v>
+      </c>
+      <c r="I99">
+        <v>81</v>
+      </c>
+      <c r="J99">
+        <v>34</v>
+      </c>
+      <c r="K99">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100">
+        <v>74</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100">
+        <v>70</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>73</v>
+      </c>
+      <c r="I100">
+        <v>26</v>
+      </c>
+      <c r="J100">
+        <v>23</v>
+      </c>
+      <c r="K100">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>83</v>
+      </c>
+      <c r="E101">
+        <v>53</v>
+      </c>
+      <c r="F101">
+        <v>70</v>
+      </c>
+      <c r="G101">
+        <v>56</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>31</v>
+      </c>
+      <c r="J101">
+        <v>61</v>
+      </c>
+      <c r="K101">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>